--- a/02_MasterWifoMannheim/99_Backup/Course132.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course132.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F592811592B60356D9DFB0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7530108D-0FAB-426B-B661-C8363216E0A5}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 693 Strategic Intellectual Property Management</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Strategic Intellectual Property (IP) management does not simply mean filing and maintaining different forms of intellectual property (patents, trademarks, copyright, or trade secrets) or concluding licensing deals. IP has to be integrated with overall business model design and corporate strategy. This course offers a broad introduction to the types and integrated use of rationales for the increasing contribution of relates IP to current trends in Innovation and and the development of markets for IP and technology.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>This course helps students develop an understanding of different types of IP rights, enables them to evaluate business situations involving strategies for organizations of different sizes (startups, industries.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on registration: -</t>
-  </si>
-  <si>
-    <t>Courses Hours per Self-studyweek Lecture 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 Min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Karin Hoisl</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall Semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Edu., LL.M., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Management (MAN)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 693 Strategic Intellectual Property Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strategic Intellectual Property (IP) management does not simply mean filing and maintaining different forms of intellectual property (patents, trademarks, copyright, or trade secrets) or concluding licensing deals. IP has to be integrated with overall business model design and corporate strategy. This course offers a broad introduction to the types and integrated use of rationales for the increasing contribution of relates IP to current trends in Innovation and and the development of markets for IP and technology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>This course helps students develop an understanding of different types of IP rights, enables them to evaluate business situations involving strategies for organizations of different sizes (startups, industries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management (MAN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on registration: -</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per Self-studyweek Lecture 2 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 Min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Karin Hoisl</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Edu., LL.M., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
